--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -682,8 +682,8 @@
       <c r="C34" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="D34" t="s" s="0">
-        <v>5</v>
+      <c r="D34" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
   </si>
   <si>
     <t>Reason</t>
@@ -204,7 +216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -683,6 +695,62 @@
         <v>0.0</v>
       </c>
       <c r="D34" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -701,21 +769,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>24.0</v>
@@ -736,18 +804,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
   </si>
   <si>
     <t>Reason</t>
@@ -216,7 +225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -751,6 +760,48 @@
         <v>0.0</v>
       </c>
       <c r="D38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -769,21 +820,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>24.0</v>
@@ -804,18 +855,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
   </si>
   <si>
     <t>Reason</t>
@@ -225,7 +237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -803,6 +815,62 @@
       </c>
       <c r="D41" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -820,24 +888,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -855,18 +923,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Video isn't on a watch page</t>
   </si>
   <si>
-    <t>Not Started</t>
+    <t>Started</t>
   </si>
   <si>
     <t>Property</t>
@@ -869,8 +869,8 @@
       <c r="C45" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D45" t="s" s="0">
-        <v>5</v>
+      <c r="D45" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -163,6 +163,15 @@
     <t>2025-11-17</t>
   </si>
   <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -175,7 +184,7 @@
     <t>Video isn't on a watch page</t>
   </si>
   <si>
-    <t>Started</t>
+    <t>Failed</t>
   </si>
   <si>
     <t>Property</t>
@@ -237,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -871,6 +880,48 @@
       </c>
       <c r="D45" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -888,21 +939,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>23.0</v>
@@ -923,18 +974,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -920,8 +920,8 @@
       <c r="C48" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D48" t="s" s="0">
-        <v>5</v>
+      <c r="D48" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
   </si>
   <si>
     <t>Reason</t>
@@ -246,7 +267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -922,6 +943,104 @@
       </c>
       <c r="D48" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -939,24 +1058,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -974,18 +1093,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -1039,8 +1039,8 @@
       <c r="C55" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D55" t="s" s="0">
-        <v>5</v>
+      <c r="D55" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Reason</t>
@@ -267,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1041,6 +1053,62 @@
       </c>
       <c r="D55" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1058,24 +1126,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -1093,18 +1161,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -1107,8 +1107,8 @@
       <c r="C59" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D59" t="s" s="0">
-        <v>5</v>
+      <c r="D59" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
   </si>
   <si>
     <t>Reason</t>
@@ -279,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1109,6 +1118,48 @@
       </c>
       <c r="D59" t="n" s="0">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1126,24 +1177,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -1161,18 +1212,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
   </si>
   <si>
     <t>Reason</t>
@@ -288,7 +300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1159,6 +1171,62 @@
         <v>1.0</v>
       </c>
       <c r="D62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D66" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1177,24 +1245,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -1212,18 +1280,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
   </si>
   <si>
     <t>Reason</t>
@@ -300,7 +309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1227,6 +1236,48 @@
         <v>1.0</v>
       </c>
       <c r="D66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D68" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D69" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1245,21 +1296,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>23.0</v>
@@ -1280,18 +1331,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Reason</t>
@@ -309,7 +321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1278,6 +1290,62 @@
         <v>1.0</v>
       </c>
       <c r="D69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D70" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D72" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D73" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1296,24 +1364,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
@@ -1331,18 +1399,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
   </si>
   <si>
     <t>Reason</t>
@@ -321,7 +330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1346,6 +1355,48 @@
         <v>1.0</v>
       </c>
       <c r="D73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D75" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D76" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1364,24 +1415,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -1399,18 +1450,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
   </si>
   <si>
     <t>Reason</t>
@@ -330,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1397,6 +1409,62 @@
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D79" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D80" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1415,21 +1483,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>23.0</v>
@@ -1450,18 +1518,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
   </si>
   <si>
     <t>Reason</t>
@@ -342,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1466,6 +1475,48 @@
       </c>
       <c r="D80" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1483,24 +1534,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
@@ -1518,18 +1569,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -1515,8 +1515,8 @@
       <c r="C83" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D83" t="s" s="0">
-        <v>5</v>
+      <c r="D83" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
   <si>
     <t>Reason</t>
@@ -351,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1517,6 +1529,62 @@
       </c>
       <c r="D83" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1534,21 +1602,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1569,18 +1637,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -1569,8 +1569,8 @@
       <c r="C86" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D86" t="s" s="0">
-        <v>5</v>
+      <c r="D86" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -1583,8 +1583,8 @@
       <c r="C87" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D87" t="s" s="0">
-        <v>5</v>
+      <c r="D87" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
   </si>
   <si>
     <t>Reason</t>
@@ -363,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1585,6 +1594,48 @@
       </c>
       <c r="D87" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1602,21 +1653,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1637,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -1634,8 +1634,8 @@
       <c r="C90" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
+      <c r="D90" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-05</t>
+    <t>2025-10-06</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-06</t>
   </si>
   <si>
     <t>2025-10-07</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -438,11 +435,11 @@
       <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>5</v>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -453,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
@@ -509,7 +506,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>0.0</v>
@@ -607,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>0.0</v>
@@ -705,7 +702,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>0.0</v>
@@ -747,7 +744,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>0.0</v>
@@ -803,7 +800,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>0.0</v>
@@ -943,10 +940,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D41" t="n" s="0">
         <v>0.0</v>
@@ -1041,7 +1038,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>1.0</v>
@@ -1139,7 +1136,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>1.0</v>
@@ -1187,7 +1184,7 @@
         <v>1.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -1195,13 +1192,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1237,7 +1234,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C62" t="n" s="0">
         <v>1.0</v>
@@ -1335,7 +1332,7 @@
         <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C69" t="n" s="0">
         <v>1.0</v>
@@ -1391,7 +1388,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C73" t="n" s="0">
         <v>1.0</v>
@@ -1489,7 +1486,7 @@
         <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C80" t="n" s="0">
         <v>1.0</v>
@@ -1621,20 +1618,6 @@
         <v>1.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1653,21 +1636,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1688,18 +1671,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-06</t>
+    <t>2025-10-07</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-07</t>
   </si>
   <si>
     <t>2025-10-08</t>
@@ -369,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,11 +418,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +433,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>
@@ -492,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>0.0</v>
@@ -590,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>0.0</v>
@@ -688,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>0.0</v>
@@ -730,7 +727,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>0.0</v>
@@ -786,7 +783,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>0.0</v>
@@ -926,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D40" t="n" s="0">
         <v>0.0</v>
@@ -1024,7 +1021,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>1.0</v>
@@ -1122,7 +1119,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>1.0</v>
@@ -1170,7 +1167,7 @@
         <v>1.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -1178,13 +1175,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C58" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1220,7 +1217,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C61" t="n" s="0">
         <v>1.0</v>
@@ -1318,7 +1315,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C68" t="n" s="0">
         <v>1.0</v>
@@ -1374,7 +1371,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C72" t="n" s="0">
         <v>1.0</v>
@@ -1472,7 +1469,7 @@
         <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C79" t="n" s="0">
         <v>1.0</v>
@@ -1604,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1636,21 +1619,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1671,18 +1654,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-07</t>
+    <t>2025-10-08</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-08</t>
   </si>
   <si>
     <t>2025-10-09</t>
@@ -366,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -404,11 +401,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -419,7 +416,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -475,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>0.0</v>
@@ -573,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>0.0</v>
@@ -671,7 +668,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>0.0</v>
@@ -713,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>0.0</v>
@@ -769,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>0.0</v>
@@ -909,10 +906,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D39" t="n" s="0">
         <v>0.0</v>
@@ -1007,7 +1004,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>1.0</v>
@@ -1105,7 +1102,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>1.0</v>
@@ -1153,7 +1150,7 @@
         <v>1.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1161,13 +1158,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C57" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -1203,7 +1200,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C60" t="n" s="0">
         <v>1.0</v>
@@ -1301,7 +1298,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C67" t="n" s="0">
         <v>1.0</v>
@@ -1357,7 +1354,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C71" t="n" s="0">
         <v>1.0</v>
@@ -1455,7 +1452,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C78" t="n" s="0">
         <v>1.0</v>
@@ -1587,20 +1584,6 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1619,21 +1602,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1654,18 +1637,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-09</t>
@@ -363,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -387,11 +381,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -399,10 +393,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -413,7 +407,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>13.0</v>
@@ -427,7 +421,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>13.0</v>
@@ -441,7 +435,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>13.0</v>
@@ -455,10 +449,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>0.0</v>
@@ -469,7 +463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>15.0</v>
@@ -483,7 +477,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>15.0</v>
@@ -497,7 +491,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>15.0</v>
@@ -511,7 +505,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>15.0</v>
@@ -525,7 +519,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>15.0</v>
@@ -539,7 +533,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>15.0</v>
@@ -553,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>0.0</v>
@@ -567,7 +561,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>21.0</v>
@@ -581,7 +575,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>21.0</v>
@@ -595,7 +589,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>21.0</v>
@@ -609,7 +603,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>21.0</v>
@@ -623,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>21.0</v>
@@ -637,7 +631,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>21.0</v>
@@ -651,10 +645,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>0.0</v>
@@ -665,7 +659,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>22.0</v>
@@ -679,7 +673,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>22.0</v>
@@ -693,10 +687,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>0.0</v>
@@ -707,7 +701,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -721,7 +715,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -735,7 +729,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -749,10 +743,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>0.0</v>
@@ -763,7 +757,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -777,7 +771,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -791,7 +785,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -805,7 +799,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -819,7 +813,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>24.0</v>
@@ -833,7 +827,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>24.0</v>
@@ -847,7 +841,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>24.0</v>
@@ -861,7 +855,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -875,7 +869,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>24.0</v>
@@ -889,13 +883,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" t="n" s="0">
         <v>0.0</v>
@@ -903,7 +897,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -917,7 +911,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -931,7 +925,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -945,7 +939,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -959,7 +953,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -973,7 +967,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -987,10 +981,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>1.0</v>
@@ -1001,7 +995,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>24.0</v>
@@ -1015,7 +1009,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>24.0</v>
@@ -1029,7 +1023,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>24.0</v>
@@ -1043,7 +1037,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>24.0</v>
@@ -1057,7 +1051,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>24.0</v>
@@ -1071,7 +1065,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>24.0</v>
@@ -1085,10 +1079,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>1.0</v>
@@ -1099,7 +1093,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1113,7 +1107,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1127,7 +1121,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>23.0</v>
@@ -1136,26 +1130,26 @@
         <v>1.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>24.0</v>
@@ -1169,7 +1163,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>24.0</v>
@@ -1183,10 +1177,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>1.0</v>
@@ -1197,7 +1191,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>23.0</v>
@@ -1225,7 +1219,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>23.0</v>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>23.0</v>
@@ -1253,7 +1247,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>23.0</v>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>23.0</v>
@@ -1281,10 +1275,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C66" t="n" s="0">
         <v>1.0</v>
@@ -1295,7 +1289,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1309,7 +1303,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1323,7 +1317,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1337,10 +1331,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C70" t="n" s="0">
         <v>1.0</v>
@@ -1351,7 +1345,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>23.0</v>
@@ -1365,7 +1359,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>23.0</v>
@@ -1379,7 +1373,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>23.0</v>
@@ -1393,7 +1387,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>23.0</v>
@@ -1407,7 +1401,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>23.0</v>
@@ -1421,7 +1415,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>23.0</v>
@@ -1435,10 +1429,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C77" t="n" s="0">
         <v>1.0</v>
@@ -1449,7 +1443,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1463,7 +1457,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1477,7 +1471,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1491,7 +1485,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1519,7 +1513,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>22.0</v>
@@ -1533,7 +1527,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1547,7 +1541,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1561,7 +1555,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>22.0</v>
@@ -1570,20 +1564,6 @@
         <v>1.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1602,21 +1582,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1637,18 +1617,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
     <t>2025-10-10</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-11</t>
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -381,11 +381,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -393,13 +393,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -407,13 +407,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>13.0</v>
@@ -435,10 +435,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>15.0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>15.0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>15.0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>15.0</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>15.0</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>15.0</v>
@@ -533,10 +533,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>0.0</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>21.0</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>21.0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>21.0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>21.0</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>21.0</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>21.0</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>0.0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>22.0</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>22.0</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>0.0</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>0.0</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>24.0</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>24.0</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>24.0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -869,13 +869,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D37" t="n" s="0">
         <v>0.0</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>1.0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>24.0</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>24.0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>24.0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>24.0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>24.0</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>24.0</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>1.0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>23.0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1116,26 +1116,26 @@
         <v>1.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>24.0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>24.0</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C58" t="n" s="0">
         <v>1.0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>23.0</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>23.0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>23.0</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>23.0</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>23.0</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C65" t="n" s="0">
         <v>1.0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C69" t="n" s="0">
         <v>1.0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>23.0</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>23.0</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>23.0</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>23.0</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>23.0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>23.0</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C76" t="n" s="0">
         <v>1.0</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>22.0</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1550,20 +1550,6 @@
         <v>1.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C86" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D86" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-10</t>
+    <t>2025-10-11</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-11</t>
   </si>
   <si>
     <t>2025-10-12</t>
@@ -357,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -409,11 +406,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -424,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>
@@ -522,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>0.0</v>
@@ -620,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>0.0</v>
@@ -662,7 +659,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>0.0</v>
@@ -718,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>0.0</v>
@@ -858,10 +855,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D36" t="n" s="0">
         <v>0.0</v>
@@ -956,7 +953,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>1.0</v>
@@ -1054,7 +1051,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>1.0</v>
@@ -1102,7 +1099,7 @@
         <v>1.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1110,13 +1107,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1152,7 +1149,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C57" t="n" s="0">
         <v>1.0</v>
@@ -1250,7 +1247,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C64" t="n" s="0">
         <v>1.0</v>
@@ -1306,7 +1303,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C68" t="n" s="0">
         <v>1.0</v>
@@ -1404,7 +1401,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C75" t="n" s="0">
         <v>1.0</v>
@@ -1536,20 +1533,6 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C85" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D85" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1568,21 +1551,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>93</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1603,18 +1586,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-11</t>
+    <t>2025-10-12</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-12</t>
   </si>
   <si>
     <t>2025-10-13</t>
@@ -354,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -392,11 +389,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -407,7 +404,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -505,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>0.0</v>
@@ -603,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>0.0</v>
@@ -645,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>0.0</v>
@@ -701,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>0.0</v>
@@ -841,10 +838,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" t="n" s="0">
         <v>0.0</v>
@@ -939,7 +936,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>1.0</v>
@@ -1037,7 +1034,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>1.0</v>
@@ -1085,7 +1082,7 @@
         <v>1.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -1093,13 +1090,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1135,7 +1132,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>1.0</v>
@@ -1233,7 +1230,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C63" t="n" s="0">
         <v>1.0</v>
@@ -1289,7 +1286,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C67" t="n" s="0">
         <v>1.0</v>
@@ -1387,7 +1384,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C74" t="n" s="0">
         <v>1.0</v>
@@ -1519,20 +1516,6 @@
         <v>1.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B84" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C84" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D84" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1551,21 +1534,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1586,18 +1569,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-12</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-13</t>
@@ -351,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,11 +369,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -387,10 +381,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -401,7 +395,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>15.0</v>
@@ -415,7 +409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>15.0</v>
@@ -429,7 +423,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>15.0</v>
@@ -443,7 +437,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>15.0</v>
@@ -457,7 +451,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>15.0</v>
@@ -471,7 +465,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>15.0</v>
@@ -485,10 +479,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>0.0</v>
@@ -499,7 +493,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>21.0</v>
@@ -513,7 +507,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>21.0</v>
@@ -527,7 +521,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>21.0</v>
@@ -541,7 +535,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>21.0</v>
@@ -555,7 +549,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>21.0</v>
@@ -569,7 +563,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>21.0</v>
@@ -583,10 +577,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>0.0</v>
@@ -597,7 +591,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>22.0</v>
@@ -611,7 +605,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>22.0</v>
@@ -625,10 +619,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>0.0</v>
@@ -639,7 +633,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -653,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -667,7 +661,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -681,10 +675,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>0.0</v>
@@ -695,7 +689,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -709,7 +703,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -723,7 +717,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>24.0</v>
@@ -737,7 +731,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -751,7 +745,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -765,7 +759,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -779,7 +773,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -793,7 +787,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -807,7 +801,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>24.0</v>
@@ -821,13 +815,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D34" t="n" s="0">
         <v>0.0</v>
@@ -835,7 +829,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -849,7 +843,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -863,7 +857,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -877,7 +871,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -891,7 +885,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -905,7 +899,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -919,10 +913,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C41" t="n" s="0">
         <v>1.0</v>
@@ -933,7 +927,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>24.0</v>
@@ -947,7 +941,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>24.0</v>
@@ -961,7 +955,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>24.0</v>
@@ -975,7 +969,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>24.0</v>
@@ -989,7 +983,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>24.0</v>
@@ -1003,7 +997,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>24.0</v>
@@ -1017,10 +1011,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>1.0</v>
@@ -1031,7 +1025,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1045,7 +1039,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1059,7 +1053,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>23.0</v>
@@ -1068,26 +1062,26 @@
         <v>1.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>24.0</v>
@@ -1101,7 +1095,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>24.0</v>
@@ -1115,10 +1109,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>1.0</v>
@@ -1129,7 +1123,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>23.0</v>
@@ -1143,7 +1137,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1157,7 +1151,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>23.0</v>
@@ -1171,7 +1165,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>23.0</v>
@@ -1185,7 +1179,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1199,7 +1193,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>23.0</v>
@@ -1213,10 +1207,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C62" t="n" s="0">
         <v>1.0</v>
@@ -1227,7 +1221,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1241,7 +1235,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1255,7 +1249,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1269,10 +1263,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C66" t="n" s="0">
         <v>1.0</v>
@@ -1283,7 +1277,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>23.0</v>
@@ -1297,7 +1291,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>23.0</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>23.0</v>
@@ -1325,7 +1319,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>23.0</v>
@@ -1339,7 +1333,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>23.0</v>
@@ -1353,7 +1347,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>23.0</v>
@@ -1367,10 +1361,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C73" t="n" s="0">
         <v>1.0</v>
@@ -1381,7 +1375,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1395,7 +1389,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1409,7 +1403,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1451,7 +1445,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1465,7 +1459,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1479,7 +1473,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1493,7 +1487,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1502,20 +1496,6 @@
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B83" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C83" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D83" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1534,21 +1514,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1569,18 +1549,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
     <t>2025-10-14</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-15</t>
@@ -345,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -369,11 +369,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -381,13 +381,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -395,7 +395,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>15.0</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>15.0</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>15.0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>15.0</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>15.0</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>0.0</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>21.0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>21.0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>21.0</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>21.0</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>21.0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>21.0</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>0.0</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>22.0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>22.0</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>0.0</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>0.0</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>24.0</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D33" t="n" s="0">
         <v>0.0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>1.0</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>24.0</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>24.0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>24.0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>24.0</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>24.0</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>24.0</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>1.0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1048,26 +1048,26 @@
         <v>1.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>24.0</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>24.0</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>1.0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>23.0</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>23.0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>23.0</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>23.0</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C61" t="n" s="0">
         <v>1.0</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C65" t="n" s="0">
         <v>1.0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>23.0</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>23.0</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>23.0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>23.0</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>23.0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>23.0</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C72" t="n" s="0">
         <v>1.0</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1482,20 +1482,6 @@
         <v>1.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C82" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D82" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-14</t>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
     <t>2025-10-16</t>
   </si>
   <si>
@@ -269,6 +266,39 @@
   </si>
   <si>
     <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
   </si>
   <si>
     <t>Reason</t>
@@ -345,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -383,11 +413,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -454,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>0.0</v>
@@ -552,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>0.0</v>
@@ -594,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>0.0</v>
@@ -650,7 +680,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>0.0</v>
@@ -790,10 +820,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n" s="0">
         <v>0.0</v>
@@ -888,7 +918,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>1.0</v>
@@ -986,7 +1016,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>1.0</v>
@@ -1034,7 +1064,7 @@
         <v>1.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1042,13 +1072,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1084,7 +1114,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>1.0</v>
@@ -1182,7 +1212,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C60" t="n" s="0">
         <v>1.0</v>
@@ -1238,7 +1268,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C64" t="n" s="0">
         <v>1.0</v>
@@ -1336,7 +1366,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C71" t="n" s="0">
         <v>1.0</v>
@@ -1483,6 +1513,146 @@
       </c>
       <c r="D81" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1500,24 +1670,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>
@@ -1535,18 +1705,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-16</t>
@@ -375,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -399,11 +393,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -411,7 +405,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>15.0</v>
@@ -425,7 +419,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>15.0</v>
@@ -439,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>15.0</v>
@@ -453,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>15.0</v>
@@ -467,10 +461,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>0.0</v>
@@ -481,7 +475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>21.0</v>
@@ -495,7 +489,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>21.0</v>
@@ -509,7 +503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>21.0</v>
@@ -523,7 +517,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>21.0</v>
@@ -537,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>21.0</v>
@@ -551,7 +545,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>21.0</v>
@@ -565,10 +559,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>0.0</v>
@@ -579,7 +573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>22.0</v>
@@ -593,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>22.0</v>
@@ -607,10 +601,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>0.0</v>
@@ -621,7 +615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -635,7 +629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -649,7 +643,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -663,10 +657,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>0.0</v>
@@ -677,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -691,7 +685,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -705,7 +699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -719,7 +713,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -733,7 +727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -747,7 +741,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>24.0</v>
@@ -761,7 +755,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -775,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -789,7 +783,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -803,13 +797,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31" t="n" s="0">
         <v>0.0</v>
@@ -817,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -831,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -845,7 +839,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -859,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -873,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -887,7 +881,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -901,10 +895,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>1.0</v>
@@ -915,7 +909,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>24.0</v>
@@ -929,7 +923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>24.0</v>
@@ -943,7 +937,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>24.0</v>
@@ -957,7 +951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>24.0</v>
@@ -971,7 +965,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>24.0</v>
@@ -985,7 +979,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>24.0</v>
@@ -999,10 +993,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>1.0</v>
@@ -1013,7 +1007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1027,7 +1021,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1041,7 +1035,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1050,26 +1044,26 @@
         <v>1.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>24.0</v>
@@ -1083,7 +1077,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>24.0</v>
@@ -1097,10 +1091,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>1.0</v>
@@ -1111,7 +1105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1125,7 +1119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1139,7 +1133,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>23.0</v>
@@ -1153,7 +1147,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>23.0</v>
@@ -1167,7 +1161,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1181,7 +1175,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>23.0</v>
@@ -1195,10 +1189,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>1.0</v>
@@ -1209,7 +1203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1237,7 +1231,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1251,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C63" t="n" s="0">
         <v>1.0</v>
@@ -1265,7 +1259,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>23.0</v>
@@ -1279,7 +1273,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>23.0</v>
@@ -1293,7 +1287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>23.0</v>
@@ -1307,7 +1301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>23.0</v>
@@ -1321,7 +1315,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>23.0</v>
@@ -1335,7 +1329,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>23.0</v>
@@ -1349,10 +1343,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C70" t="n" s="0">
         <v>1.0</v>
@@ -1363,7 +1357,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1377,7 +1371,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1391,7 +1385,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1405,7 +1399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1433,7 +1427,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1461,7 +1455,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1475,7 +1469,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1489,7 +1483,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1503,7 +1497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1517,7 +1511,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>22.0</v>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1554,12 +1548,12 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1568,12 +1562,12 @@
         <v>1.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>22.0</v>
@@ -1587,10 +1581,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C87" t="n" s="0">
         <v>1.0</v>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1615,7 +1609,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>21.0</v>
@@ -1629,7 +1623,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="n" s="0">
         <v>21.0</v>
@@ -1639,20 +1633,6 @@
       </c>
       <c r="D90" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1670,21 +1650,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1705,18 +1685,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
     <t>2025-10-17</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-18</t>
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -393,11 +393,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -405,13 +405,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -419,13 +419,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>15.0</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>21.0</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>21.0</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>21.0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>21.0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>21.0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>21.0</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>0.0</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>22.0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>22.0</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>0.0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>23.0</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>0.0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>24.0</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" t="n" s="0">
         <v>0.0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>1.0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>24.0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>24.0</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>24.0</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>24.0</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>24.0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>24.0</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>1.0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>23.0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1030,26 +1030,26 @@
         <v>1.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>24.0</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>24.0</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>1.0</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>23.0</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>23.0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>23.0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C58" t="n" s="0">
         <v>1.0</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C62" t="n" s="0">
         <v>1.0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>23.0</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>23.0</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>23.0</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>23.0</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>23.0</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>23.0</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C69" t="n" s="0">
         <v>1.0</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>22.0</v>
@@ -1534,12 +1534,12 @@
         <v>1.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1548,12 +1548,12 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C86" t="n" s="0">
         <v>1.0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>21.0</v>
@@ -1618,20 +1618,6 @@
         <v>1.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-17</t>
+    <t>2025-10-18</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-18</t>
-  </si>
-  <si>
     <t>2025-10-19</t>
   </si>
   <si>
@@ -293,6 +290,15 @@
   </si>
   <si>
     <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
   </si>
   <si>
     <t>Reason</t>
@@ -369,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,11 +427,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>
@@ -534,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>0.0</v>
@@ -576,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>0.0</v>
@@ -632,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>0.0</v>
@@ -772,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" t="n" s="0">
         <v>0.0</v>
@@ -870,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>1.0</v>
@@ -968,7 +974,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>1.0</v>
@@ -1016,7 +1022,7 @@
         <v>1.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1024,13 +1030,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1072,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>1.0</v>
@@ -1164,7 +1170,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C57" t="n" s="0">
         <v>1.0</v>
@@ -1220,7 +1226,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C61" t="n" s="0">
         <v>1.0</v>
@@ -1318,7 +1324,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C68" t="n" s="0">
         <v>1.0</v>
@@ -1520,7 +1526,7 @@
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -1534,7 +1540,7 @@
         <v>1.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -1556,7 +1562,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C85" t="n" s="0">
         <v>1.0</v>
@@ -1619,6 +1625,34 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1636,21 +1670,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1671,18 +1705,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-18</t>
+    <t>2025-10-19</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-19</t>
   </si>
   <si>
     <t>2025-10-20</t>
@@ -375,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -413,11 +410,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -428,7 +425,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -526,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>0.0</v>
@@ -568,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>0.0</v>
@@ -624,7 +621,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>0.0</v>
@@ -764,10 +761,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28" t="n" s="0">
         <v>0.0</v>
@@ -862,7 +859,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>1.0</v>
@@ -960,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>1.0</v>
@@ -1008,7 +1005,7 @@
         <v>1.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -1016,13 +1013,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1058,7 +1055,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>1.0</v>
@@ -1156,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>1.0</v>
@@ -1212,7 +1209,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C60" t="n" s="0">
         <v>1.0</v>
@@ -1310,7 +1307,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C67" t="n" s="0">
         <v>1.0</v>
@@ -1512,7 +1509,7 @@
         <v>1.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -1526,7 +1523,7 @@
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -1548,7 +1545,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C84" t="n" s="0">
         <v>1.0</v>
@@ -1637,22 +1634,8 @@
       <c r="C90" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>5</v>
+      <c r="D90" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1670,21 +1653,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1705,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-20</t>
@@ -372,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,10 +402,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -422,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>21.0</v>
@@ -436,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>21.0</v>
@@ -450,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>21.0</v>
@@ -464,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>21.0</v>
@@ -478,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>21.0</v>
@@ -492,7 +486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>21.0</v>
@@ -506,10 +500,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>0.0</v>
@@ -520,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>22.0</v>
@@ -534,7 +528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>22.0</v>
@@ -548,10 +542,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>0.0</v>
@@ -562,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -576,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -590,7 +584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>23.0</v>
@@ -604,10 +598,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>0.0</v>
@@ -618,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -632,7 +626,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -646,7 +640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>24.0</v>
@@ -660,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -674,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -688,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -702,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -716,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -730,7 +724,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -744,13 +738,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" t="n" s="0">
         <v>0.0</v>
@@ -758,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -772,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -786,7 +780,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -800,7 +794,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -814,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -842,10 +836,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>1.0</v>
@@ -856,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>24.0</v>
@@ -870,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -884,7 +878,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>24.0</v>
@@ -898,7 +892,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>24.0</v>
@@ -912,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>24.0</v>
@@ -926,7 +920,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>24.0</v>
@@ -940,10 +934,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C41" t="n" s="0">
         <v>1.0</v>
@@ -954,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -968,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -982,7 +976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -991,26 +985,26 @@
         <v>1.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>24.0</v>
@@ -1024,7 +1018,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>24.0</v>
@@ -1038,10 +1032,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>1.0</v>
@@ -1052,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1066,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>23.0</v>
@@ -1094,7 +1088,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>23.0</v>
@@ -1108,7 +1102,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1122,7 +1116,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1136,10 +1130,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>1.0</v>
@@ -1150,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1164,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1178,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1192,10 +1186,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>1.0</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1220,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>23.0</v>
@@ -1234,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>23.0</v>
@@ -1248,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>23.0</v>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>23.0</v>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>23.0</v>
@@ -1290,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C66" t="n" s="0">
         <v>1.0</v>
@@ -1304,7 +1298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1318,7 +1312,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1332,7 +1326,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1346,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1360,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1374,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1416,7 +1410,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1430,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1458,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1486,7 +1480,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1495,12 +1489,12 @@
         <v>1.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1509,12 +1503,12 @@
         <v>1.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1528,10 +1522,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C83" t="n" s="0">
         <v>1.0</v>
@@ -1542,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1556,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1570,7 +1564,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1598,7 +1592,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1612,7 +1606,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>21.0</v>
@@ -1621,20 +1615,6 @@
         <v>1.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1653,21 +1633,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1688,18 +1668,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
     <t>2025-10-21</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-22</t>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -390,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -402,13 +402,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>21.0</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>21.0</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>21.0</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>21.0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>21.0</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>0.0</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>22.0</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>22.0</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>0.0</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>23.0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>0.0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>24.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26" t="n" s="0">
         <v>0.0</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>1.0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>24.0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>24.0</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>24.0</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>24.0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>24.0</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>1.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -971,26 +971,26 @@
         <v>1.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>24.0</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>24.0</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>1.0</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>23.0</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>23.0</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>1.0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C58" t="n" s="0">
         <v>1.0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>23.0</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>23.0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>23.0</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>23.0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>23.0</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C65" t="n" s="0">
         <v>1.0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1475,12 +1475,12 @@
         <v>1.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1489,12 +1489,12 @@
         <v>1.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C82" t="n" s="0">
         <v>1.0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>21.0</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1601,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-21</t>
+    <t>2025-10-22</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
     <t>2025-10-23</t>
   </si>
   <si>
@@ -290,6 +287,18 @@
   </si>
   <si>
     <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
   </si>
   <si>
     <t>Reason</t>
@@ -366,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -404,11 +413,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -475,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>0.0</v>
@@ -517,7 +526,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>0.0</v>
@@ -573,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>0.0</v>
@@ -713,10 +722,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" t="n" s="0">
         <v>0.0</v>
@@ -811,7 +820,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>1.0</v>
@@ -909,7 +918,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>1.0</v>
@@ -957,7 +966,7 @@
         <v>1.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -965,13 +974,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1007,7 +1016,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>1.0</v>
@@ -1105,7 +1114,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>1.0</v>
@@ -1161,7 +1170,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C57" t="n" s="0">
         <v>1.0</v>
@@ -1259,7 +1268,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C64" t="n" s="0">
         <v>1.0</v>
@@ -1461,7 +1470,7 @@
         <v>1.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -1475,7 +1484,7 @@
         <v>1.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -1497,7 +1506,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C81" t="n" s="0">
         <v>1.0</v>
@@ -1602,6 +1611,48 @@
       </c>
       <c r="D88" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1619,21 +1670,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1654,18 +1705,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,277 +28,274 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-22</t>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
+  </si>
+  <si>
+    <t>2025-10-26</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>2025-10-25</t>
-  </si>
-  <si>
-    <t>2025-10-26</t>
-  </si>
-  <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
   </si>
   <si>
     <t>Reason</t>
@@ -375,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -399,11 +396,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -411,7 +408,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>21.0</v>
@@ -425,7 +422,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>21.0</v>
@@ -439,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>21.0</v>
@@ -453,7 +450,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>21.0</v>
@@ -467,10 +464,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>0.0</v>
@@ -481,7 +478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>22.0</v>
@@ -495,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>22.0</v>
@@ -509,10 +506,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>0.0</v>
@@ -523,7 +520,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -537,7 +534,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>23.0</v>
@@ -551,7 +548,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>23.0</v>
@@ -565,10 +562,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>0.0</v>
@@ -579,7 +576,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -607,7 +604,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -621,7 +618,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -649,7 +646,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>24.0</v>
@@ -663,7 +660,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -691,7 +688,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -705,13 +702,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="n" s="0">
         <v>0.0</v>
@@ -719,7 +716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -747,7 +744,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -761,7 +758,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -775,7 +772,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -789,7 +786,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -803,10 +800,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>1.0</v>
@@ -817,7 +814,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -831,7 +828,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>24.0</v>
@@ -845,7 +842,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>24.0</v>
@@ -859,7 +856,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>24.0</v>
@@ -873,7 +870,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -887,7 +884,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>24.0</v>
@@ -901,10 +898,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>1.0</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -929,7 +926,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -943,7 +940,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -952,26 +949,26 @@
         <v>1.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>24.0</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>24.0</v>
@@ -999,10 +996,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>1.0</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1055,7 +1052,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>23.0</v>
@@ -1097,10 +1094,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>1.0</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1125,7 +1122,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1153,10 +1150,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>1.0</v>
@@ -1167,7 +1164,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>23.0</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>23.0</v>
@@ -1209,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>23.0</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>23.0</v>
@@ -1251,10 +1248,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C63" t="n" s="0">
         <v>1.0</v>
@@ -1265,7 +1262,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1279,7 +1276,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1363,7 +1360,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1456,12 +1453,12 @@
         <v>1.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1470,12 +1467,12 @@
         <v>1.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>22.0</v>
@@ -1489,10 +1486,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C80" t="n" s="0">
         <v>1.0</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>21.0</v>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>21.0</v>
@@ -1629,7 +1626,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="n" s="0">
         <v>21.0</v>
@@ -1637,22 +1634,8 @@
       <c r="C90" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>5</v>
+      <c r="D90" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1670,21 +1653,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1705,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
     <t>2025-10-24</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-10-25</t>
   </si>
   <si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>2026-01-19</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +393,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,13 +405,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -422,13 +419,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>21.0</v>
@@ -450,10 +447,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
@@ -464,7 +461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>22.0</v>
@@ -478,7 +475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>22.0</v>
@@ -492,10 +489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>0.0</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>23.0</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -534,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>23.0</v>
@@ -548,10 +545,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>0.0</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -576,7 +573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -590,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -632,7 +629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -646,7 +643,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>24.0</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -674,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -688,13 +685,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" t="n" s="0">
         <v>0.0</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -758,7 +755,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -786,10 +783,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>1.0</v>
@@ -800,7 +797,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>24.0</v>
@@ -842,7 +839,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>24.0</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>24.0</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -884,10 +881,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>1.0</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -935,26 +932,26 @@
         <v>1.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C41" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>24.0</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>24.0</v>
@@ -982,10 +979,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>1.0</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>23.0</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1024,7 +1021,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1052,7 +1049,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1080,10 +1077,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>1.0</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1136,10 +1133,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>1.0</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>23.0</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1178,7 +1175,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>23.0</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>23.0</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>23.0</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>23.0</v>
@@ -1234,10 +1231,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C62" t="n" s="0">
         <v>1.0</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1304,7 +1301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>22.0</v>
@@ -1439,12 +1436,12 @@
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>22.0</v>
@@ -1453,12 +1450,12 @@
         <v>1.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>22.0</v>
@@ -1472,10 +1469,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C79" t="n" s="0">
         <v>1.0</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1528,7 +1525,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>21.0</v>
@@ -1542,7 +1539,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1556,7 +1553,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1584,7 +1581,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1612,7 +1609,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>21.0</v>
@@ -1622,20 +1619,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1653,21 +1636,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1688,18 +1671,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-24</t>
+    <t>2025-10-25</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-25</t>
-  </si>
-  <si>
     <t>2025-10-26</t>
   </si>
   <si>
@@ -293,6 +290,15 @@
   </si>
   <si>
     <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
   </si>
   <si>
     <t>Reason</t>
@@ -369,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,11 +427,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>
@@ -478,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>0.0</v>
@@ -534,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>0.0</v>
@@ -674,10 +680,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D22" t="n" s="0">
         <v>0.0</v>
@@ -772,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>1.0</v>
@@ -870,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>1.0</v>
@@ -918,7 +924,7 @@
         <v>1.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -926,13 +932,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +974,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>1.0</v>
@@ -1066,7 +1072,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>1.0</v>
@@ -1122,7 +1128,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>1.0</v>
@@ -1220,7 +1226,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C61" t="n" s="0">
         <v>1.0</v>
@@ -1422,7 +1428,7 @@
         <v>1.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -1436,7 +1442,7 @@
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1458,7 +1464,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C78" t="n" s="0">
         <v>1.0</v>
@@ -1619,6 +1625,34 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1636,21 +1670,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1671,18 +1705,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-25</t>
+    <t>2025-10-26</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-26</t>
   </si>
   <si>
     <t>2025-10-27</t>
@@ -375,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -413,11 +410,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -428,7 +425,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -470,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>0.0</v>
@@ -526,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>0.0</v>
@@ -666,10 +663,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="n" s="0">
         <v>0.0</v>
@@ -764,7 +761,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>1.0</v>
@@ -862,7 +859,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>1.0</v>
@@ -910,7 +907,7 @@
         <v>1.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -918,13 +915,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -960,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>1.0</v>
@@ -1058,7 +1055,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>1.0</v>
@@ -1114,7 +1111,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>1.0</v>
@@ -1212,7 +1209,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C60" t="n" s="0">
         <v>1.0</v>
@@ -1414,7 +1411,7 @@
         <v>1.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -1428,7 +1425,7 @@
         <v>1.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -1450,7 +1447,7 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C77" t="n" s="0">
         <v>1.0</v>
@@ -1638,20 +1635,6 @@
         <v>1.0</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D91" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -1670,21 +1653,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1705,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-26</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-27</t>
@@ -372,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,10 +402,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -422,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>22.0</v>
@@ -436,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>22.0</v>
@@ -450,10 +444,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
@@ -464,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>23.0</v>
@@ -478,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>23.0</v>
@@ -492,7 +486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>23.0</v>
@@ -506,10 +500,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>0.0</v>
@@ -520,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -534,7 +528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -548,7 +542,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>24.0</v>
@@ -562,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -576,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -590,7 +584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -604,7 +598,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -618,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -632,7 +626,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -646,13 +640,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="n" s="0">
         <v>0.0</v>
@@ -660,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -674,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -688,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -702,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -716,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -730,7 +724,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -744,10 +738,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>1.0</v>
@@ -758,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -772,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -786,7 +780,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -800,7 +794,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -814,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>24.0</v>
@@ -842,10 +836,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>1.0</v>
@@ -856,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -870,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -884,7 +878,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -893,26 +887,26 @@
         <v>1.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>24.0</v>
@@ -926,7 +920,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>24.0</v>
@@ -940,10 +934,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C41" t="n" s="0">
         <v>1.0</v>
@@ -954,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -968,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -982,7 +976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -996,7 +990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>23.0</v>
@@ -1010,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1024,7 +1018,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1038,10 +1032,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>1.0</v>
@@ -1052,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1066,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1094,10 +1088,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>1.0</v>
@@ -1108,7 +1102,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1122,7 +1116,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1136,7 +1130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>23.0</v>
@@ -1150,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>23.0</v>
@@ -1164,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1178,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>23.0</v>
@@ -1192,10 +1186,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>1.0</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1220,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1234,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1248,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1290,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1304,7 +1298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1318,7 +1312,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1332,7 +1326,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1346,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1360,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1374,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1397,12 +1391,12 @@
         <v>1.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1411,12 +1405,12 @@
         <v>1.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>22.0</v>
@@ -1430,10 +1424,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C76" t="n" s="0">
         <v>1.0</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1458,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1486,7 +1480,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1500,7 +1494,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1514,7 +1508,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1528,7 +1522,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>21.0</v>
@@ -1542,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1556,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1570,7 +1564,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1598,7 +1592,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1612,7 +1606,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>21.0</v>
@@ -1622,20 +1616,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1653,21 +1633,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1688,18 +1668,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
     <t>2025-10-28</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-29</t>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -390,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -402,13 +402,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>22.0</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>23.0</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>23.0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>23.0</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>0.0</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>24.0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n" s="0">
         <v>0.0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>1.0</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>24.0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>1.0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -873,26 +873,26 @@
         <v>1.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>24.0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>24.0</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>1.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>23.0</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>1.0</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>1.0</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>23.0</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>23.0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>23.0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>23.0</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C58" t="n" s="0">
         <v>1.0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1377,12 +1377,12 @@
         <v>1.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>22.0</v>
@@ -1391,12 +1391,12 @@
         <v>1.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>22.0</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C75" t="n" s="0">
         <v>1.0</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>21.0</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>21.0</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1601,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-28</t>
+    <t>2025-10-29</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
     <t>2025-10-30</t>
   </si>
   <si>
@@ -290,6 +287,18 @@
   </si>
   <si>
     <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
   </si>
   <si>
     <t>Reason</t>
@@ -366,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -404,11 +413,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -419,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -475,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>0.0</v>
@@ -615,10 +624,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" t="n" s="0">
         <v>0.0</v>
@@ -713,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>1.0</v>
@@ -811,7 +820,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>1.0</v>
@@ -859,7 +868,7 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -867,13 +876,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -909,7 +918,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>1.0</v>
@@ -1007,7 +1016,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>1.0</v>
@@ -1063,7 +1072,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>1.0</v>
@@ -1161,7 +1170,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C57" t="n" s="0">
         <v>1.0</v>
@@ -1363,7 +1372,7 @@
         <v>1.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -1377,7 +1386,7 @@
         <v>1.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -1399,7 +1408,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C74" t="n" s="0">
         <v>1.0</v>
@@ -1595,13 +1604,55 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C88" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1619,24 +1670,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -1654,18 +1705,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,277 +28,274 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-29</t>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-24</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
   </si>
   <si>
     <t>Reason</t>
@@ -375,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -399,11 +396,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -411,10 +408,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -425,7 +422,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>23.0</v>
@@ -439,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>23.0</v>
@@ -453,7 +450,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>23.0</v>
@@ -467,10 +464,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>0.0</v>
@@ -481,7 +478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -495,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -509,7 +506,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -523,7 +520,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -537,7 +534,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -551,7 +548,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>24.0</v>
@@ -565,7 +562,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -579,7 +576,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -607,13 +604,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="n" s="0">
         <v>0.0</v>
@@ -621,7 +618,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -649,7 +646,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -663,7 +660,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -691,7 +688,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -705,10 +702,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>1.0</v>
@@ -719,7 +716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -747,7 +744,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>24.0</v>
@@ -761,7 +758,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -775,7 +772,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -789,7 +786,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -803,10 +800,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>1.0</v>
@@ -817,7 +814,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -831,7 +828,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -845,7 +842,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -854,26 +851,26 @@
         <v>1.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -887,7 +884,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>24.0</v>
@@ -901,10 +898,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>1.0</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -929,7 +926,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -943,7 +940,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -957,7 +954,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -971,7 +968,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -999,10 +996,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>1.0</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1055,10 +1052,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>1.0</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>23.0</v>
@@ -1097,7 +1094,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>23.0</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1125,7 +1122,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>23.0</v>
@@ -1153,10 +1150,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>1.0</v>
@@ -1167,7 +1164,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1209,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1265,7 +1262,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1279,7 +1276,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1358,12 +1355,12 @@
         <v>1.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1372,12 +1369,12 @@
         <v>1.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>22.0</v>
@@ -1391,10 +1388,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C73" t="n" s="0">
         <v>1.0</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>21.0</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>21.0</v>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>21.0</v>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1587,10 +1584,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C87" t="n" s="0">
         <v>1.0</v>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>19.0</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>19.0</v>
@@ -1629,7 +1626,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="n" s="0">
         <v>19.0</v>
@@ -1638,21 +1635,7 @@
         <v>1.0</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1670,21 +1653,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>19.0</v>
@@ -1705,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
     <t>2025-10-31</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-01</t>
   </si>
   <si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>2026-01-26</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +393,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,13 +405,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -422,13 +419,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>23.0</v>
@@ -450,10 +447,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
@@ -464,7 +461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -478,7 +475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -492,7 +489,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -534,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -548,7 +545,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>24.0</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -576,7 +573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -590,13 +587,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" t="n" s="0">
         <v>0.0</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>23.0</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -632,7 +629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -646,7 +643,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -674,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -688,10 +685,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>1.0</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>24.0</v>
@@ -758,7 +755,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -786,10 +783,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>1.0</v>
@@ -800,7 +797,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -837,26 +834,26 @@
         <v>1.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>24.0</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>24.0</v>
@@ -884,10 +881,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>1.0</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -940,7 +937,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -954,7 +951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -982,10 +979,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>1.0</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1024,7 +1021,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1038,10 +1035,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>1.0</v>
@@ -1052,7 +1049,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1080,7 +1077,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>23.0</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>23.0</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>23.0</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>23.0</v>
@@ -1136,10 +1133,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>1.0</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1178,7 +1175,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1304,7 +1301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>22.0</v>
@@ -1341,12 +1338,12 @@
         <v>1.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>22.0</v>
@@ -1355,12 +1352,12 @@
         <v>1.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>22.0</v>
@@ -1374,10 +1371,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C72" t="n" s="0">
         <v>1.0</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>21.0</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>21.0</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>21.0</v>
@@ -1444,7 +1441,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1528,7 +1525,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>21.0</v>
@@ -1542,7 +1539,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1556,7 +1553,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1570,10 +1567,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C86" t="n" s="0">
         <v>1.0</v>
@@ -1584,7 +1581,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>19.0</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>19.0</v>
@@ -1612,7 +1609,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>19.0</v>
@@ -1622,20 +1619,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1653,21 +1636,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>19.0</v>
@@ -1688,18 +1671,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-31</t>
+    <t>2025-11-01</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-01</t>
   </si>
   <si>
     <t>2025-11-02</t>
@@ -369,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,11 +418,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +433,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>
@@ -576,10 +573,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15" t="n" s="0">
         <v>0.0</v>
@@ -674,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>1.0</v>
@@ -772,7 +769,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>1.0</v>
@@ -820,7 +817,7 @@
         <v>1.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -828,13 +825,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>1.0</v>
@@ -968,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>1.0</v>
@@ -1024,7 +1021,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>1.0</v>
@@ -1122,7 +1119,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>1.0</v>
@@ -1324,7 +1321,7 @@
         <v>1.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -1338,7 +1335,7 @@
         <v>1.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -1360,7 +1357,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C71" t="n" s="0">
         <v>1.0</v>
@@ -1556,7 +1553,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C85" t="n" s="0">
         <v>1.0</v>
@@ -1604,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1636,21 +1619,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>19.0</v>
@@ -1671,18 +1654,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-01</t>
+    <t>2025-11-02</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
     <t>2025-11-03</t>
   </si>
   <si>
@@ -290,6 +287,15 @@
   </si>
   <si>
     <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
   </si>
   <si>
     <t>Reason</t>
@@ -366,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -404,11 +410,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -419,7 +425,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -559,10 +565,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n" s="0">
         <v>0.0</v>
@@ -657,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>1.0</v>
@@ -755,7 +761,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>1.0</v>
@@ -803,7 +809,7 @@
         <v>1.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -811,13 +817,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -853,7 +859,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>1.0</v>
@@ -951,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>1.0</v>
@@ -1007,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>1.0</v>
@@ -1105,7 +1111,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>1.0</v>
@@ -1307,7 +1313,7 @@
         <v>1.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -1321,7 +1327,7 @@
         <v>1.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -1343,7 +1349,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C70" t="n" s="0">
         <v>1.0</v>
@@ -1539,7 +1545,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C84" t="n" s="0">
         <v>1.0</v>
@@ -1595,13 +1601,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C88" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1619,24 +1653,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -1654,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-11-03</t>
@@ -372,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,10 +402,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -422,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>24.0</v>
@@ -436,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>24.0</v>
@@ -450,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>24.0</v>
@@ -464,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -478,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -492,7 +486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -506,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -520,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -534,7 +528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -548,13 +542,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" t="n" s="0">
         <v>0.0</v>
@@ -562,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -576,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -590,7 +584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>23.0</v>
@@ -604,7 +598,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>23.0</v>
@@ -618,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -632,7 +626,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -646,10 +640,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>1.0</v>
@@ -660,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -674,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -688,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -702,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -716,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -730,7 +724,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -744,10 +738,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>1.0</v>
@@ -758,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -772,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -786,7 +780,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -795,26 +789,26 @@
         <v>1.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>24.0</v>
@@ -842,10 +836,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>1.0</v>
@@ -856,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -870,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -884,7 +878,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -898,7 +892,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -912,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -926,7 +920,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -940,10 +934,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C41" t="n" s="0">
         <v>1.0</v>
@@ -954,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>22.0</v>
@@ -968,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>22.0</v>
@@ -982,7 +976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>22.0</v>
@@ -996,10 +990,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>1.0</v>
@@ -1010,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1024,7 +1018,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1038,7 +1032,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1052,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1066,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>23.0</v>
@@ -1094,10 +1088,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>1.0</v>
@@ -1108,7 +1102,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1122,7 +1116,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1136,7 +1130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1150,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1164,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1178,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1192,7 +1186,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1220,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1234,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1248,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1290,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1299,12 +1293,12 @@
         <v>1.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1313,12 +1307,12 @@
         <v>1.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>22.0</v>
@@ -1332,10 +1326,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C69" t="n" s="0">
         <v>1.0</v>
@@ -1346,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1360,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1374,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>21.0</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1416,7 +1410,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>21.0</v>
@@ -1430,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>21.0</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1458,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1486,7 +1480,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1500,7 +1494,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1514,7 +1508,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1528,10 +1522,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C83" t="n" s="0">
         <v>1.0</v>
@@ -1542,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>19.0</v>
@@ -1556,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>19.0</v>
@@ -1570,7 +1564,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>19.0</v>
@@ -1584,21 +1578,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C87" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>20.0</v>
@@ -1607,12 +1601,12 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>20.0</v>
@@ -1622,20 +1616,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1653,21 +1633,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>20.0</v>
@@ -1688,18 +1668,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
     <t>2025-11-04</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-05</t>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -390,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -402,13 +402,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>24.0</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>24.0</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>24.0</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -528,13 +528,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" t="n" s="0">
         <v>0.0</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>23.0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>23.0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>23.0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>1.0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>24.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>1.0</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -775,26 +775,26 @@
         <v>1.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>24.0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>24.0</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>1.0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>1.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>22.0</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>22.0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>22.0</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>1.0</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>23.0</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>23.0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>23.0</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>1.0</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1279,12 +1279,12 @@
         <v>1.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>22.0</v>
@@ -1293,12 +1293,12 @@
         <v>1.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>22.0</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C68" t="n" s="0">
         <v>1.0</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>21.0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>21.0</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>21.0</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C82" t="n" s="0">
         <v>1.0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>19.0</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>19.0</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>19.0</v>
@@ -1564,21 +1564,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C86" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>20.0</v>
@@ -1587,12 +1587,12 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>20.0</v>
@@ -1601,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-04</t>
+    <t>2025-11-05</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
     <t>2025-11-06</t>
   </si>
   <si>
@@ -290,6 +287,18 @@
   </si>
   <si>
     <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
   </si>
   <si>
     <t>Reason</t>
@@ -366,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -404,11 +413,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -517,10 +526,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="n" s="0">
         <v>0.0</v>
@@ -615,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>1.0</v>
@@ -713,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>1.0</v>
@@ -761,7 +770,7 @@
         <v>1.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -769,13 +778,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -811,7 +820,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>1.0</v>
@@ -909,7 +918,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>1.0</v>
@@ -965,7 +974,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>1.0</v>
@@ -1063,7 +1072,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>1.0</v>
@@ -1265,7 +1274,7 @@
         <v>1.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1288,7 @@
         <v>1.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -1301,7 +1310,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C67" t="n" s="0">
         <v>1.0</v>
@@ -1497,7 +1506,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C81" t="n" s="0">
         <v>1.0</v>
@@ -1553,13 +1562,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C85" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -1573,7 +1582,7 @@
         <v>1.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -1602,6 +1611,48 @@
       </c>
       <c r="D88" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1619,21 +1670,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>20.0</v>
@@ -1654,18 +1705,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,277 +28,274 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-05</t>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-24</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-01-31</t>
-  </si>
-  <si>
-    <t>2026-02-01</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
   </si>
   <si>
     <t>Reason</t>
@@ -375,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -399,11 +396,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -411,7 +408,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>24.0</v>
@@ -425,7 +422,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>24.0</v>
@@ -439,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>24.0</v>
@@ -453,7 +450,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>24.0</v>
@@ -467,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -481,7 +478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -495,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -509,13 +506,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>0.0</v>
@@ -523,7 +520,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -537,7 +534,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>23.0</v>
@@ -551,7 +548,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>23.0</v>
@@ -565,7 +562,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -579,7 +576,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>23.0</v>
@@ -607,10 +604,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>1.0</v>
@@ -621,7 +618,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -649,7 +646,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>24.0</v>
@@ -663,7 +660,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -691,7 +688,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -705,10 +702,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>1.0</v>
@@ -719,7 +716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -747,7 +744,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -756,26 +753,26 @@
         <v>1.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -789,7 +786,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>24.0</v>
@@ -803,10 +800,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>1.0</v>
@@ -817,7 +814,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -831,7 +828,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -845,7 +842,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -859,7 +856,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -873,7 +870,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -887,7 +884,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -901,10 +898,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>1.0</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>22.0</v>
@@ -929,7 +926,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>22.0</v>
@@ -943,7 +940,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>22.0</v>
@@ -957,10 +954,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>1.0</v>
@@ -971,7 +968,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -999,7 +996,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>23.0</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>23.0</v>
@@ -1055,10 +1052,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>1.0</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1097,7 +1094,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1125,7 +1122,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1153,7 +1150,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1167,7 +1164,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1209,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1260,12 +1257,12 @@
         <v>1.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1274,12 +1271,12 @@
         <v>1.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>22.0</v>
@@ -1293,10 +1290,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C66" t="n" s="0">
         <v>1.0</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1363,7 +1360,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>21.0</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>21.0</v>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>21.0</v>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1489,10 +1486,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C80" t="n" s="0">
         <v>1.0</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>19.0</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>19.0</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>19.0</v>
@@ -1545,21 +1542,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C84" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>20.0</v>
@@ -1568,12 +1565,12 @@
         <v>1.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>20.0</v>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>20.0</v>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>20.0</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>20.0</v>
@@ -1629,7 +1626,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="n" s="0">
         <v>20.0</v>
@@ -1638,21 +1635,7 @@
         <v>1.0</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1670,21 +1653,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>20.0</v>
@@ -1705,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
     <t>2025-11-07</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-08</t>
   </si>
   <si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>2026-02-02</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +393,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,13 +405,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -422,13 +419,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>24.0</v>
@@ -450,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>24.0</v>
@@ -464,7 +461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -478,7 +475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -492,13 +489,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>23.0</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -534,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>23.0</v>
@@ -548,7 +545,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>23.0</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -576,7 +573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -590,10 +587,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>1.0</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -632,7 +629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -646,7 +643,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>24.0</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -674,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -688,10 +685,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>1.0</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -739,26 +736,26 @@
         <v>1.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>24.0</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>24.0</v>
@@ -786,10 +783,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>1.0</v>
@@ -800,7 +797,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -842,7 +839,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -884,10 +881,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>1.0</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>22.0</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>22.0</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>22.0</v>
@@ -940,10 +937,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C41" t="n" s="0">
         <v>1.0</v>
@@ -954,7 +951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>23.0</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>23.0</v>
@@ -1024,7 +1021,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>23.0</v>
@@ -1038,10 +1035,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>1.0</v>
@@ -1052,7 +1049,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1080,7 +1077,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1178,7 +1175,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>22.0</v>
@@ -1243,12 +1240,12 @@
         <v>1.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>22.0</v>
@@ -1257,12 +1254,12 @@
         <v>1.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>22.0</v>
@@ -1276,10 +1273,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C65" t="n" s="0">
         <v>1.0</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>21.0</v>
@@ -1304,7 +1301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>21.0</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>21.0</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>21.0</v>
@@ -1444,7 +1441,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1472,10 +1469,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C79" t="n" s="0">
         <v>1.0</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>19.0</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>19.0</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>19.0</v>
@@ -1528,21 +1525,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C83" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>20.0</v>
@@ -1551,12 +1548,12 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>20.0</v>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>20.0</v>
@@ -1584,7 +1581,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>20.0</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>20.0</v>
@@ -1612,7 +1609,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>20.0</v>
@@ -1622,20 +1619,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1653,21 +1636,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>20.0</v>
@@ -1688,18 +1671,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-07</t>
+    <t>2025-11-08</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-08</t>
   </si>
   <si>
     <t>2025-11-09</t>
@@ -369,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,11 +418,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -478,10 +475,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -576,7 +573,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>1.0</v>
@@ -674,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>1.0</v>
@@ -722,7 +719,7 @@
         <v>1.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -730,13 +727,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +769,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>1.0</v>
@@ -870,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>1.0</v>
@@ -926,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>1.0</v>
@@ -1024,7 +1021,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>1.0</v>
@@ -1226,7 +1223,7 @@
         <v>1.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1237,7 @@
         <v>1.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1262,7 +1259,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C64" t="n" s="0">
         <v>1.0</v>
@@ -1458,7 +1455,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C78" t="n" s="0">
         <v>1.0</v>
@@ -1514,13 +1511,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C82" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -1534,7 +1531,7 @@
         <v>1.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -1604,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1636,21 +1619,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>20.0</v>
@@ -1671,18 +1654,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -26,15 +26,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2025-11-09</t>
   </si>
   <si>
     <t>2025-11-10</t>
@@ -366,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -390,11 +381,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -402,13 +393,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -416,7 +407,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>24.0</v>
@@ -430,7 +421,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>24.0</v>
@@ -444,13 +435,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>0.0</v>
@@ -458,13 +449,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -472,7 +463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>23.0</v>
@@ -486,7 +477,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>23.0</v>
@@ -500,7 +491,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>23.0</v>
@@ -514,7 +505,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -528,7 +519,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>23.0</v>
@@ -542,10 +533,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>1.0</v>
@@ -556,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>1.0</v>
@@ -570,7 +561,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -584,7 +575,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -598,7 +589,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -612,7 +603,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -626,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -640,10 +631,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>1.0</v>
@@ -654,10 +645,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>1.0</v>
@@ -668,7 +659,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -682,7 +673,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -691,15 +682,15 @@
         <v>1.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>1.0</v>
@@ -710,21 +701,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>24.0</v>
@@ -738,10 +729,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>1.0</v>
@@ -752,10 +743,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>1.0</v>
@@ -766,7 +757,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -780,7 +771,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -794,7 +785,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -808,7 +799,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -822,7 +813,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -836,10 +827,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>1.0</v>
@@ -850,10 +841,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>1.0</v>
@@ -864,7 +855,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>22.0</v>
@@ -878,7 +869,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>22.0</v>
@@ -892,10 +883,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>1.0</v>
@@ -906,10 +897,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>1.0</v>
@@ -920,7 +911,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -934,7 +925,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -948,7 +939,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -962,7 +953,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -976,7 +967,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>23.0</v>
@@ -990,10 +981,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>1.0</v>
@@ -1004,10 +995,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>1.0</v>
@@ -1018,7 +1009,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1032,7 +1023,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1046,7 +1037,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1060,7 +1051,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1074,7 +1065,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1088,7 +1079,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1102,7 +1093,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1116,7 +1107,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1130,7 +1121,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1144,7 +1135,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1158,7 +1149,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1172,7 +1163,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1186,7 +1177,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1195,12 +1186,12 @@
         <v>1.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1214,7 +1205,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>22.0</v>
@@ -1223,15 +1214,15 @@
         <v>1.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C62" t="n" s="0">
         <v>1.0</v>
@@ -1242,10 +1233,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C63" t="n" s="0">
         <v>1.0</v>
@@ -1256,7 +1247,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1270,7 +1261,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>21.0</v>
@@ -1284,7 +1275,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>21.0</v>
@@ -1298,7 +1289,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1312,7 +1303,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1326,7 +1317,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1340,7 +1331,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1354,7 +1345,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1368,7 +1359,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1382,7 +1373,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>21.0</v>
@@ -1396,7 +1387,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1410,7 +1401,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>21.0</v>
@@ -1424,10 +1415,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C76" t="n" s="0">
         <v>1.0</v>
@@ -1438,10 +1429,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C77" t="n" s="0">
         <v>1.0</v>
@@ -1452,7 +1443,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>19.0</v>
@@ -1466,7 +1457,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>19.0</v>
@@ -1480,24 +1471,24 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C80" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C81" t="n" s="0">
         <v>1.0</v>
@@ -1508,7 +1499,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>20.0</v>
@@ -1517,12 +1508,12 @@
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>20.0</v>
@@ -1536,7 +1527,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>20.0</v>
@@ -1550,7 +1541,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>20.0</v>
@@ -1564,7 +1555,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>20.0</v>
@@ -1573,34 +1564,6 @@
         <v>1.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1619,21 +1582,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>20.0</v>
@@ -1654,18 +1617,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
     <t>2025-11-11</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-12</t>
   </si>
   <si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
   </si>
   <si>
     <t>Reason</t>
@@ -357,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -381,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -393,13 +402,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -407,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>24.0</v>
@@ -421,13 +430,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -435,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>23.0</v>
@@ -449,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>23.0</v>
@@ -463,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>23.0</v>
@@ -477,7 +486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>23.0</v>
@@ -491,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>23.0</v>
@@ -505,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -519,10 +528,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>1.0</v>
@@ -533,7 +542,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>24.0</v>
@@ -547,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -561,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -575,7 +584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -589,7 +598,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -603,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -617,10 +626,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>1.0</v>
@@ -631,7 +640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -645,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -659,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -668,26 +677,26 @@
         <v>1.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>24.0</v>
@@ -701,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>24.0</v>
@@ -715,10 +724,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>1.0</v>
@@ -729,7 +738,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -743,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -757,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -771,7 +780,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -785,7 +794,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -799,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -813,10 +822,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>1.0</v>
@@ -827,7 +836,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>22.0</v>
@@ -841,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>22.0</v>
@@ -855,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>22.0</v>
@@ -869,10 +878,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>1.0</v>
@@ -883,7 +892,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -897,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -911,7 +920,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -925,7 +934,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -939,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>23.0</v>
@@ -953,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>23.0</v>
@@ -967,10 +976,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>1.0</v>
@@ -981,7 +990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -995,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1009,7 +1018,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1023,7 +1032,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1037,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1051,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1065,7 +1074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1079,7 +1088,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1093,7 +1102,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1107,7 +1116,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1121,7 +1130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1135,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1149,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1163,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1172,12 +1181,12 @@
         <v>1.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>22.0</v>
@@ -1186,12 +1195,12 @@
         <v>1.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>22.0</v>
@@ -1205,10 +1214,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C61" t="n" s="0">
         <v>1.0</v>
@@ -1219,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>21.0</v>
@@ -1233,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>21.0</v>
@@ -1247,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1261,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>21.0</v>
@@ -1275,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>21.0</v>
@@ -1289,7 +1298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1303,7 +1312,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1317,7 +1326,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1331,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1345,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1359,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1373,7 +1382,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>21.0</v>
@@ -1387,7 +1396,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>21.0</v>
@@ -1401,10 +1410,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C75" t="n" s="0">
         <v>1.0</v>
@@ -1415,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>19.0</v>
@@ -1429,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>19.0</v>
@@ -1443,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>19.0</v>
@@ -1457,21 +1466,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C79" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>20.0</v>
@@ -1480,12 +1489,12 @@
         <v>1.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>20.0</v>
@@ -1499,7 +1508,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>20.0</v>
@@ -1513,7 +1522,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>20.0</v>
@@ -1527,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>20.0</v>
@@ -1541,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>20.0</v>
@@ -1555,15 +1564,43 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C86" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D86" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1582,24 +1619,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>
@@ -1617,18 +1654,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,268 +28,274 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-11</t>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-24</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-01-31</t>
-  </si>
-  <si>
-    <t>2026-02-01</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-02-04</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
   </si>
   <si>
     <t>Reason</t>
@@ -366,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -390,11 +396,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -402,13 +408,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -416,13 +422,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -430,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>23.0</v>
@@ -444,7 +450,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>23.0</v>
@@ -458,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>23.0</v>
@@ -472,7 +478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>23.0</v>
@@ -486,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>23.0</v>
@@ -500,10 +506,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>1.0</v>
@@ -514,10 +520,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>1.0</v>
@@ -528,7 +534,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -542,7 +548,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>24.0</v>
@@ -556,7 +562,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -570,7 +576,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -584,7 +590,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -598,10 +604,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>1.0</v>
@@ -612,10 +618,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>1.0</v>
@@ -626,7 +632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -640,7 +646,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -649,15 +655,15 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>1.0</v>
@@ -668,21 +674,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>24.0</v>
@@ -696,10 +702,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>1.0</v>
@@ -710,10 +716,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>1.0</v>
@@ -724,7 +730,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -738,7 +744,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -752,7 +758,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -766,7 +772,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -780,7 +786,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -794,10 +800,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>1.0</v>
@@ -808,10 +814,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>1.0</v>
@@ -822,7 +828,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>22.0</v>
@@ -836,7 +842,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>22.0</v>
@@ -850,10 +856,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>1.0</v>
@@ -864,10 +870,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>1.0</v>
@@ -878,7 +884,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -892,7 +898,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -906,7 +912,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -920,7 +926,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -934,7 +940,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>23.0</v>
@@ -948,10 +954,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>1.0</v>
@@ -962,10 +968,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>1.0</v>
@@ -976,7 +982,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>22.0</v>
@@ -990,7 +996,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1018,7 +1024,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1032,7 +1038,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1046,7 +1052,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1074,7 +1080,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1088,7 +1094,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1102,7 +1108,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1116,7 +1122,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1130,7 +1136,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1144,7 +1150,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1153,12 +1159,12 @@
         <v>1.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1172,7 +1178,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>22.0</v>
@@ -1181,15 +1187,15 @@
         <v>1.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>1.0</v>
@@ -1200,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C60" t="n" s="0">
         <v>1.0</v>
@@ -1214,7 +1220,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>21.0</v>
@@ -1228,7 +1234,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>21.0</v>
@@ -1242,7 +1248,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>21.0</v>
@@ -1256,7 +1262,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1270,7 +1276,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>21.0</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>21.0</v>
@@ -1298,7 +1304,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1312,7 +1318,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1326,7 +1332,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1354,7 +1360,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1382,10 +1388,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C73" t="n" s="0">
         <v>1.0</v>
@@ -1396,10 +1402,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C74" t="n" s="0">
         <v>1.0</v>
@@ -1410,7 +1416,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>19.0</v>
@@ -1424,7 +1430,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>19.0</v>
@@ -1438,24 +1444,24 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C77" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C78" t="n" s="0">
         <v>1.0</v>
@@ -1466,7 +1472,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>20.0</v>
@@ -1475,12 +1481,12 @@
         <v>1.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>20.0</v>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>20.0</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>20.0</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>20.0</v>
@@ -1536,24 +1542,24 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C84" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C85" t="n" s="0">
         <v>1.0</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>21.0</v>
@@ -1573,15 +1579,15 @@
         <v>1.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C87" t="n" s="0">
         <v>1.0</v>
@@ -1592,16 +1598,44 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B88" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
-        <v>0.0</v>
+      <c r="B89" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1619,24 +1653,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
@@ -1654,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
     <t>2025-11-14</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-15</t>
   </si>
   <si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>2026-02-09</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +393,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,13 +405,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>1.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -422,13 +419,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>1.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>23.0</v>
@@ -450,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>23.0</v>
@@ -464,7 +461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>23.0</v>
@@ -478,7 +475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>23.0</v>
@@ -492,10 +489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>1.0</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -534,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -548,7 +545,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>24.0</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -576,7 +573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -590,10 +587,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>1.0</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>23.0</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -632,7 +629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -641,26 +638,26 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>24.0</v>
@@ -674,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>24.0</v>
@@ -688,10 +685,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>1.0</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>23.0</v>
@@ -758,7 +755,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -786,10 +783,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>1.0</v>
@@ -800,7 +797,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>22.0</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>22.0</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>22.0</v>
@@ -842,10 +839,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>1.0</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -884,7 +881,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>23.0</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>23.0</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>23.0</v>
@@ -940,10 +937,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C41" t="n" s="0">
         <v>1.0</v>
@@ -954,7 +951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>22.0</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>22.0</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>22.0</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1024,7 +1021,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1052,7 +1049,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1080,7 +1077,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>22.0</v>
@@ -1145,12 +1142,12 @@
         <v>1.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>22.0</v>
@@ -1159,12 +1156,12 @@
         <v>1.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>22.0</v>
@@ -1178,10 +1175,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C58" t="n" s="0">
         <v>1.0</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>21.0</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>21.0</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>21.0</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>21.0</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>21.0</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>21.0</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>21.0</v>
@@ -1304,7 +1301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1374,10 +1371,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C72" t="n" s="0">
         <v>1.0</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>19.0</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>19.0</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>19.0</v>
@@ -1430,21 +1427,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C76" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>20.0</v>
@@ -1453,12 +1450,12 @@
         <v>1.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>20.0</v>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>20.0</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>20.0</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>20.0</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>20.0</v>
@@ -1528,21 +1525,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C83" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>21.0</v>
@@ -1551,12 +1548,12 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>21.0</v>
@@ -1570,10 +1567,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C86" t="n" s="0">
         <v>1.0</v>
@@ -1584,7 +1581,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>22.0</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>22.0</v>
@@ -1612,7 +1609,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>22.0</v>
@@ -1622,20 +1619,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1653,21 +1636,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1688,18 +1671,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-14</t>
+    <t>2025-11-15</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-15</t>
   </si>
   <si>
     <t>2025-11-16</t>
@@ -369,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,11 +418,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -478,7 +475,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>1.0</v>
@@ -576,7 +573,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>1.0</v>
@@ -624,7 +621,7 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -632,13 +629,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>1.0</v>
@@ -772,7 +769,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>1.0</v>
@@ -828,7 +825,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>1.0</v>
@@ -926,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>1.0</v>
@@ -1128,7 +1125,7 @@
         <v>1.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -1142,7 +1139,7 @@
         <v>1.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1164,7 +1161,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C57" t="n" s="0">
         <v>1.0</v>
@@ -1360,7 +1357,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C71" t="n" s="0">
         <v>1.0</v>
@@ -1416,13 +1413,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C75" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -1436,7 +1433,7 @@
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1514,13 +1511,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C82" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -1534,7 +1531,7 @@
         <v>1.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -1556,7 +1553,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C85" t="n" s="0">
         <v>1.0</v>
@@ -1604,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1636,21 +1619,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1671,18 +1654,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-15</t>
+    <t>2025-11-16</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-16</t>
   </si>
   <si>
     <t>2025-11-17</t>
@@ -366,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -404,11 +401,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -461,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>1.0</v>
@@ -559,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>1.0</v>
@@ -607,7 +604,7 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -615,13 +612,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -657,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>1.0</v>
@@ -755,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>1.0</v>
@@ -811,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>1.0</v>
@@ -909,7 +906,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>1.0</v>
@@ -1111,7 +1108,7 @@
         <v>1.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1125,7 +1122,7 @@
         <v>1.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1147,7 +1144,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>1.0</v>
@@ -1343,7 +1340,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C70" t="n" s="0">
         <v>1.0</v>
@@ -1399,13 +1396,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C74" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -1419,7 +1416,7 @@
         <v>1.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -1497,13 +1494,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C81" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -1517,7 +1514,7 @@
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -1539,7 +1536,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C84" t="n" s="0">
         <v>1.0</v>
@@ -1587,20 +1584,6 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1619,21 +1602,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1654,18 +1637,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-17</t>
   </si>
   <si>
@@ -287,6 +281,15 @@
   </si>
   <si>
     <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
   </si>
   <si>
     <t>Reason</t>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -387,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -399,7 +402,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>23.0</v>
@@ -413,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>23.0</v>
@@ -427,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>23.0</v>
@@ -441,10 +444,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>1.0</v>
@@ -455,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -469,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -483,7 +486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -497,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -511,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -525,7 +528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>24.0</v>
@@ -539,10 +542,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>1.0</v>
@@ -553,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -567,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -581,7 +584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>23.0</v>
@@ -590,26 +593,26 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -623,7 +626,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>24.0</v>
@@ -637,10 +640,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>1.0</v>
@@ -651,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -665,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -679,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -707,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -721,7 +724,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>23.0</v>
@@ -735,10 +738,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>1.0</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>22.0</v>
@@ -763,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>22.0</v>
@@ -777,7 +780,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>22.0</v>
@@ -791,10 +794,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>1.0</v>
@@ -805,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -833,7 +836,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -847,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -861,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>23.0</v>
@@ -889,10 +892,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>1.0</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>22.0</v>
@@ -917,7 +920,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>22.0</v>
@@ -931,7 +934,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>22.0</v>
@@ -945,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>22.0</v>
@@ -959,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>22.0</v>
@@ -973,7 +976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>22.0</v>
@@ -987,7 +990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -1001,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1043,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1071,7 +1074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1085,7 +1088,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1094,12 +1097,12 @@
         <v>1.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1108,12 +1111,12 @@
         <v>1.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>22.0</v>
@@ -1127,10 +1130,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>1.0</v>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>21.0</v>
@@ -1155,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>21.0</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>21.0</v>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>21.0</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>21.0</v>
@@ -1211,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>21.0</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>21.0</v>
@@ -1239,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>21.0</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>21.0</v>
@@ -1281,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>21.0</v>
@@ -1295,7 +1298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1323,10 +1326,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C69" t="n" s="0">
         <v>1.0</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>19.0</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>19.0</v>
@@ -1365,7 +1368,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>19.0</v>
@@ -1379,21 +1382,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C73" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>20.0</v>
@@ -1402,12 +1405,12 @@
         <v>1.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>20.0</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>20.0</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>20.0</v>
@@ -1449,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>20.0</v>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>20.0</v>
@@ -1477,21 +1480,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C80" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1500,12 +1503,12 @@
         <v>1.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>21.0</v>
@@ -1519,10 +1522,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C83" t="n" s="0">
         <v>1.0</v>
@@ -1533,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1547,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>22.0</v>
@@ -1575,15 +1578,43 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
+      <c r="B88" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1602,21 +1633,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1637,18 +1668,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
     <t>2025-11-18</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-19</t>
   </si>
   <si>
@@ -304,7 +304,7 @@
     <t>Video isn't on a watch page</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Property</t>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -390,11 +390,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>1.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -402,13 +402,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>1.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>23.0</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>1.0</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>24.0</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>24.0</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>24.0</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>1.0</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>23.0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>23.0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>23.0</v>
@@ -579,26 +579,26 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>24.0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>24.0</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>1.0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>23.0</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>23.0</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>1.0</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>22.0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>22.0</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>22.0</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>1.0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>23.0</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>23.0</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>1.0</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>22.0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>22.0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>22.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>22.0</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>22.0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>22.0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>22.0</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1083,12 +1083,12 @@
         <v>1.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>22.0</v>
@@ -1097,12 +1097,12 @@
         <v>1.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>22.0</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>1.0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>21.0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>21.0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>21.0</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>21.0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>21.0</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>21.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>21.0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>21.0</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>21.0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>21.0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>21.0</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C68" t="n" s="0">
         <v>1.0</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>19.0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>19.0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>19.0</v>
@@ -1368,21 +1368,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C72" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>20.0</v>
@@ -1391,12 +1391,12 @@
         <v>1.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>20.0</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>20.0</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>20.0</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>20.0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>20.0</v>
@@ -1466,21 +1466,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C79" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>21.0</v>
@@ -1489,12 +1489,12 @@
         <v>1.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>21.0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C82" t="n" s="0">
         <v>1.0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>22.0</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>22.0</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>22.0</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>22.0</v>
@@ -1601,20 +1601,6 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-18</t>
+    <t>2025-11-19</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-19</t>
   </si>
   <si>
     <t>2025-11-20</t>
@@ -366,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -404,11 +401,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -419,7 +416,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>1.0</v>
@@ -517,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>1.0</v>
@@ -565,7 +562,7 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -573,13 +570,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>1.0</v>
@@ -713,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>1.0</v>
@@ -769,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>1.0</v>
@@ -867,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>1.0</v>
@@ -1069,7 +1066,7 @@
         <v>1.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1083,7 +1080,7 @@
         <v>1.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1102,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>1.0</v>
@@ -1301,7 +1298,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C67" t="n" s="0">
         <v>1.0</v>
@@ -1357,13 +1354,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C71" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -1377,7 +1374,7 @@
         <v>1.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -1455,13 +1452,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C78" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -1475,7 +1472,7 @@
         <v>1.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -1497,7 +1494,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C81" t="n" s="0">
         <v>1.0</v>
@@ -1587,20 +1584,6 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1619,21 +1602,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>22.0</v>
@@ -1654,18 +1637,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -28,265 +28,274 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-19</t>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-24</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-01-31</t>
-  </si>
-  <si>
-    <t>2026-02-01</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-02-04</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>2026-02-06</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>2026-02-08</t>
-  </si>
-  <si>
-    <t>2026-02-09</t>
-  </si>
-  <si>
-    <t>2026-02-10</t>
-  </si>
-  <si>
-    <t>2026-02-11</t>
-  </si>
-  <si>
-    <t>2026-02-12</t>
   </si>
   <si>
     <t>Reason</t>
@@ -363,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -387,11 +396,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -399,10 +408,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>1.0</v>
@@ -413,7 +422,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>24.0</v>
@@ -427,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>24.0</v>
@@ -441,7 +450,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>24.0</v>
@@ -455,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -469,7 +478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -483,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>24.0</v>
@@ -497,10 +506,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>1.0</v>
@@ -511,7 +520,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -525,7 +534,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>23.0</v>
@@ -539,7 +548,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>23.0</v>
@@ -548,26 +557,26 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -581,7 +590,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>24.0</v>
@@ -595,10 +604,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>1.0</v>
@@ -609,7 +618,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -623,7 +632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -637,7 +646,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -651,7 +660,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -665,7 +674,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -679,7 +688,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>23.0</v>
@@ -693,10 +702,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>1.0</v>
@@ -707,7 +716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>22.0</v>
@@ -721,7 +730,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>22.0</v>
@@ -735,7 +744,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>22.0</v>
@@ -749,10 +758,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>1.0</v>
@@ -763,7 +772,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -777,7 +786,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -791,7 +800,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -805,7 +814,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -819,7 +828,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -833,7 +842,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>23.0</v>
@@ -847,10 +856,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>1.0</v>
@@ -861,7 +870,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>22.0</v>
@@ -875,7 +884,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>22.0</v>
@@ -889,7 +898,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>22.0</v>
@@ -903,7 +912,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>22.0</v>
@@ -917,7 +926,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>22.0</v>
@@ -931,7 +940,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>22.0</v>
@@ -945,7 +954,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>22.0</v>
@@ -959,7 +968,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>22.0</v>
@@ -973,7 +982,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>22.0</v>
@@ -987,7 +996,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -1001,7 +1010,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1015,7 +1024,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1029,7 +1038,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1043,7 +1052,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1052,12 +1061,12 @@
         <v>1.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1066,12 +1075,12 @@
         <v>1.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>22.0</v>
@@ -1085,10 +1094,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>1.0</v>
@@ -1099,7 +1108,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>21.0</v>
@@ -1113,7 +1122,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>21.0</v>
@@ -1127,7 +1136,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>21.0</v>
@@ -1141,7 +1150,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>21.0</v>
@@ -1155,7 +1164,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>21.0</v>
@@ -1169,7 +1178,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>21.0</v>
@@ -1183,7 +1192,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>21.0</v>
@@ -1197,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>21.0</v>
@@ -1211,7 +1220,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>21.0</v>
@@ -1225,7 +1234,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>21.0</v>
@@ -1239,7 +1248,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>21.0</v>
@@ -1253,7 +1262,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1267,7 +1276,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>21.0</v>
@@ -1281,10 +1290,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C66" t="n" s="0">
         <v>1.0</v>
@@ -1295,7 +1304,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>19.0</v>
@@ -1309,7 +1318,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>19.0</v>
@@ -1323,7 +1332,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>19.0</v>
@@ -1337,21 +1346,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C70" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>20.0</v>
@@ -1360,12 +1369,12 @@
         <v>1.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>20.0</v>
@@ -1379,7 +1388,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>20.0</v>
@@ -1393,7 +1402,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>20.0</v>
@@ -1407,7 +1416,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>20.0</v>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>20.0</v>
@@ -1435,21 +1444,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C77" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1458,12 +1467,12 @@
         <v>1.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>21.0</v>
@@ -1477,10 +1486,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C80" t="n" s="0">
         <v>1.0</v>
@@ -1491,7 +1500,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1505,7 +1514,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1519,7 +1528,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>22.0</v>
@@ -1533,7 +1542,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1547,7 +1556,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1561,7 +1570,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>22.0</v>
@@ -1575,16 +1584,58 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>0.0</v>
+      <c r="B88" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1602,24 +1653,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>
@@ -1637,18 +1688,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
     <t>2025-11-21</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-22</t>
   </si>
   <si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>2026-02-16</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -396,11 +393,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>1.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -408,13 +405,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>1.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -422,13 +419,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>1.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -436,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>24.0</v>
@@ -450,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>24.0</v>
@@ -464,7 +461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>24.0</v>
@@ -478,7 +475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>24.0</v>
@@ -492,10 +489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>1.0</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>23.0</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>23.0</v>
@@ -534,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>23.0</v>
@@ -543,26 +540,26 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>24.0</v>
@@ -576,7 +573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>24.0</v>
@@ -590,10 +587,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>1.0</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>23.0</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>23.0</v>
@@ -632,7 +629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>23.0</v>
@@ -646,7 +643,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>23.0</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>23.0</v>
@@ -674,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>23.0</v>
@@ -688,10 +685,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>1.0</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>22.0</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>22.0</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>22.0</v>
@@ -744,10 +741,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>1.0</v>
@@ -758,7 +755,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>23.0</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>23.0</v>
@@ -786,7 +783,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>23.0</v>
@@ -800,7 +797,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>23.0</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>23.0</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>23.0</v>
@@ -842,10 +839,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>1.0</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>22.0</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>22.0</v>
@@ -884,7 +881,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>22.0</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>22.0</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>22.0</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>22.0</v>
@@ -940,7 +937,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>22.0</v>
@@ -954,7 +951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>22.0</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>22.0</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>22.0</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>22.0</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>22.0</v>
@@ -1024,7 +1021,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>22.0</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>22.0</v>
@@ -1047,12 +1044,12 @@
         <v>1.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>22.0</v>
@@ -1061,12 +1058,12 @@
         <v>1.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>22.0</v>
@@ -1080,10 +1077,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>1.0</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>21.0</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>21.0</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>21.0</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>21.0</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>21.0</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>21.0</v>
@@ -1178,7 +1175,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>21.0</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>21.0</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>21.0</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>21.0</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>21.0</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>21.0</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>21.0</v>
@@ -1276,10 +1273,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C65" t="n" s="0">
         <v>1.0</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>19.0</v>
@@ -1304,7 +1301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>19.0</v>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>19.0</v>
@@ -1332,21 +1329,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C69" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>20.0</v>
@@ -1355,12 +1352,12 @@
         <v>1.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>20.0</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>20.0</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>20.0</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>20.0</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>20.0</v>
@@ -1430,21 +1427,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C76" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>21.0</v>
@@ -1453,12 +1450,12 @@
         <v>1.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>21.0</v>
@@ -1472,10 +1469,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C79" t="n" s="0">
         <v>1.0</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>22.0</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>22.0</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>22.0</v>
@@ -1528,7 +1525,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>22.0</v>
@@ -1542,7 +1539,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>22.0</v>
@@ -1556,7 +1553,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>22.0</v>
@@ -1570,10 +1567,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C86" t="n" s="0">
         <v>1.0</v>
@@ -1584,7 +1581,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>21.0</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>21.0</v>
@@ -1612,7 +1609,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>21.0</v>
@@ -1622,20 +1619,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1653,21 +1636,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1688,18 +1671,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Video-Indexing.xlsx
+++ b/gsc-export/Video-Indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -28,16 +28,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-21</t>
+    <t>2025-11-23</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
   </si>
   <si>
     <t>2025-11-24</t>
@@ -369,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -407,11 +401,11 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -421,11 +415,11 @@
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -464,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>1.0</v>
@@ -478,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>1.0</v>
@@ -512,7 +506,7 @@
         <v>1.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>1.0</v>
@@ -534,13 +528,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>1.0</v>
@@ -576,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>1.0</v>
@@ -660,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>1.0</v>
@@ -674,7 +668,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>1.0</v>
@@ -716,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>1.0</v>
@@ -730,7 +724,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>1.0</v>
@@ -814,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>1.0</v>
@@ -828,7 +822,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>1.0</v>
@@ -1016,7 +1010,7 @@
         <v>1.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1044,7 +1038,7 @@
         <v>1.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1052,7 +1046,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>1.0</v>
@@ -1066,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>1.0</v>
@@ -1248,7 +1242,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C63" t="n" s="0">
         <v>1.0</v>
@@ -1262,7 +1256,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C64" t="n" s="0">
         <v>1.0</v>
@@ -1304,13 +1298,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C67" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1312,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C68" t="n" s="0">
         <v>1.0</v>
@@ -1338,7 +1332,7 @@
         <v>1.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -1402,13 +1396,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C74" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -1416,7 +1410,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C75" t="n" s="0">
         <v>1.0</v>
@@ -1436,7 +1430,7 @@
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1444,7 +1438,7 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C77" t="n" s="0">
         <v>1.0</v>
@@ -1458,7 +1452,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C78" t="n" s="0">
         <v>1.0</v>
@@ -1542,7 +1536,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C84" t="n" s="0">
         <v>1.0</v>
@@ -1556,7 +1550,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C85" t="n" s="0">
         <v>1.0</v>
@@ -1590,34 +1584,6 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1636,21 +1602,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>21.0</v>
@@ -1671,18 +1637,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
